--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_40_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_40_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,496 +518,496 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_40_6_3</t>
+          <t>model_40_6_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9507071860785018</v>
+        <v>0.9653409858704963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8090029772202624</v>
+        <v>0.7831108685303483</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8904614787038286</v>
+        <v>0.9161810137304679</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9496341202870724</v>
+        <v>0.9411117941148842</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9413755844162232</v>
+        <v>0.9524993852133963</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3296212736655963</v>
+        <v>0.2317649870740768</v>
       </c>
       <c r="H2" t="n">
-        <v>1.277197970788529</v>
+        <v>1.450338620820182</v>
       </c>
       <c r="I2" t="n">
-        <v>0.228528526104001</v>
+        <v>0.2218586165872868</v>
       </c>
       <c r="J2" t="n">
-        <v>0.632002996056347</v>
+        <v>0.4627225421077238</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4302658372716748</v>
+        <v>0.3422906726274201</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3320072523782376</v>
+        <v>0.2303873010996691</v>
       </c>
       <c r="M2" t="n">
-        <v>0.574126531058787</v>
+        <v>0.4814197618233768</v>
       </c>
       <c r="N2" t="n">
-        <v>1.035849319215635</v>
+        <v>1.025206555730548</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5985682860917195</v>
+        <v>0.5019147977604894</v>
       </c>
       <c r="P2" t="n">
-        <v>116.2196218782827</v>
+        <v>116.9240628149666</v>
       </c>
       <c r="Q2" t="n">
-        <v>185.6955438957701</v>
+        <v>186.3999848324541</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_40_6_2</t>
+          <t>model_40_6_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9501706521687741</v>
+        <v>0.9648840784497011</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8084727534898752</v>
+        <v>0.7826997903297294</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9330271607896479</v>
+        <v>0.9401501319559996</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9633925330511396</v>
+        <v>0.9531235270032321</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9591869591052783</v>
+        <v>0.9634504588918138</v>
       </c>
       <c r="G3" t="n">
-        <v>0.333209078390457</v>
+        <v>0.2348203291007996</v>
       </c>
       <c r="H3" t="n">
-        <v>1.280743579315083</v>
+        <v>1.453087502640562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1397244006276079</v>
+        <v>0.1584152889236287</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4593591717564117</v>
+        <v>0.3683386244169978</v>
       </c>
       <c r="K3" t="n">
-        <v>0.299541701820053</v>
+        <v>0.2633769492531466</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3516572730159925</v>
+        <v>0.1805836293341455</v>
       </c>
       <c r="M3" t="n">
-        <v>0.577242651222566</v>
+        <v>0.4845826339240807</v>
       </c>
       <c r="N3" t="n">
-        <v>1.036239525695437</v>
+        <v>1.025538852036581</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6018170659421286</v>
+        <v>0.5052123198745683</v>
       </c>
       <c r="P3" t="n">
-        <v>116.1979702459816</v>
+        <v>116.8978692285573</v>
       </c>
       <c r="Q3" t="n">
-        <v>185.673892263469</v>
+        <v>186.3737912460447</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_40_6_4</t>
+          <t>model_40_6_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.949850406236141</v>
+        <v>0.9641032417435227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8078087555516663</v>
+        <v>0.7819490424586696</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8444640533608374</v>
+        <v>0.8905219942420824</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9361884351340463</v>
+        <v>0.9249590701194395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9233437942409913</v>
+        <v>0.9389802498559022</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3353505644165715</v>
+        <v>0.2400417877504369</v>
       </c>
       <c r="H4" t="n">
-        <v>1.285183736585316</v>
+        <v>1.458107757111215</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3244922445642026</v>
+        <v>0.2897749064404449</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8007226401721175</v>
+        <v>0.5896448926326823</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5626076818767796</v>
+        <v>0.4397099156339934</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3100460543734033</v>
+        <v>0.2742597842601541</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5790946074835885</v>
+        <v>0.489940596144509</v>
       </c>
       <c r="N4" t="n">
-        <v>1.036472431828261</v>
+        <v>1.026106733277438</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6037478638152608</v>
+        <v>0.5107983816392311</v>
       </c>
       <c r="P4" t="n">
-        <v>116.1851576667413</v>
+        <v>116.8538845103394</v>
       </c>
       <c r="Q4" t="n">
-        <v>185.6610796842287</v>
+        <v>186.3298065278268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_40_6_5</t>
+          <t>model_40_6_0</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9481959750478861</v>
+        <v>0.9620808770659887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8056544014492895</v>
+        <v>0.7802538590116711</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7977132518844248</v>
+        <v>0.9614423994765974</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9237375927921273</v>
+        <v>0.9589261805066838</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9060554135940272</v>
+        <v>0.9705246192258316</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3464137533903875</v>
+        <v>0.2535653496612406</v>
       </c>
       <c r="H5" t="n">
-        <v>1.299589912387799</v>
+        <v>1.469443456626896</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4220277200221753</v>
+        <v>0.1020572580481904</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9569587609024433</v>
+        <v>0.3227434404624112</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6894933744685867</v>
+        <v>0.2124003648471687</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2895008296353822</v>
+        <v>0.1609938939025824</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5885692426472756</v>
+        <v>0.5035527277865155</v>
       </c>
       <c r="N5" t="n">
-        <v>1.037675654510628</v>
+        <v>1.027577543952008</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6136258538130646</v>
+        <v>0.5249900099062347</v>
       </c>
       <c r="P5" t="n">
-        <v>116.1202427985983</v>
+        <v>116.7442673991645</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.5961648160857</v>
+        <v>186.2201894166519</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_40_6_1</t>
+          <t>model_40_6_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9472911899429532</v>
+        <v>0.9616969202669733</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8050432330296005</v>
+        <v>0.7795813187053264</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9680619746526882</v>
+        <v>0.863903687665605</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9760113557343801</v>
+        <v>0.9063657478447936</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9749537815459515</v>
+        <v>0.9239542687028375</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3524640555532257</v>
+        <v>0.2561328705442145</v>
       </c>
       <c r="H6" t="n">
-        <v>1.30367679842443</v>
+        <v>1.473940736752186</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06663180927519505</v>
+        <v>0.3602303120207939</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3010151938894897</v>
+        <v>0.735744594938724</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1838232764678112</v>
+        <v>0.5479875288580646</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3613541432358724</v>
+        <v>0.3123413173508658</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5936868328952779</v>
+        <v>0.506095712829317</v>
       </c>
       <c r="N6" t="n">
-        <v>1.038333680041489</v>
+        <v>1.027856785260383</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6189613104727967</v>
+        <v>0.5276412550870131</v>
       </c>
       <c r="P6" t="n">
-        <v>116.0856132639818</v>
+        <v>116.7241178871728</v>
       </c>
       <c r="Q6" t="n">
-        <v>185.5615352814692</v>
+        <v>186.2000399046603</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_40_6_6</t>
+          <t>model_40_6_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.946113357608023</v>
+        <v>0.9585372341454405</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8030153954200134</v>
+        <v>0.7762957615703493</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7517496892004349</v>
+        <v>0.8368199734631903</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9125620571381065</v>
+        <v>0.8866946523113521</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8899691212813021</v>
+        <v>0.9082552312657013</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3603402258003234</v>
+        <v>0.2772617061879217</v>
       </c>
       <c r="H7" t="n">
-        <v>1.317236957857072</v>
+        <v>1.495911272442378</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5179207913396187</v>
+        <v>0.4319175947286896</v>
       </c>
       <c r="J7" t="n">
-        <v>1.097192031047485</v>
+        <v>0.8903130555407569</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8075565050193823</v>
+        <v>0.6611152032703101</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3012855204954875</v>
+        <v>0.3449301602909003</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6002834545448703</v>
+        <v>0.5265564605889114</v>
       </c>
       <c r="N7" t="n">
-        <v>1.039190285375983</v>
+        <v>1.030154738803316</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6258387639629015</v>
+        <v>0.5489730592383202</v>
       </c>
       <c r="P7" t="n">
-        <v>116.041413244327</v>
+        <v>116.5655868622875</v>
       </c>
       <c r="Q7" t="n">
-        <v>185.5173352618144</v>
+        <v>186.0415088797749</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_40_6_7</t>
+          <t>model_40_6_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9438430441040708</v>
+        <v>0.9549447287010605</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8001918520628901</v>
+        <v>0.7723201972200082</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7073791371245197</v>
+        <v>0.809577852138417</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9027719576262769</v>
+        <v>0.8670072178534898</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8752936364393946</v>
+        <v>0.8925181637823774</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3755218226550835</v>
+        <v>0.3012848066364569</v>
       </c>
       <c r="H8" t="n">
-        <v>1.336118005287378</v>
+        <v>1.522495889558899</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6104903892157234</v>
+        <v>0.5040241617370543</v>
       </c>
       <c r="J8" t="n">
-        <v>1.220040520112552</v>
+        <v>1.045009901589921</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9152652081253028</v>
+        <v>0.7745169231901377</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3303002844906004</v>
+        <v>0.3725717237197552</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6127983539918197</v>
+        <v>0.5488941670636125</v>
       </c>
       <c r="N8" t="n">
-        <v>1.040841422469767</v>
+        <v>1.032767470035592</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6388864485887209</v>
+        <v>0.5722617281230763</v>
       </c>
       <c r="P8" t="n">
-        <v>115.9588773864162</v>
+        <v>116.3993985202993</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.4347994039036</v>
+        <v>185.8753205377867</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_40_6_8</t>
+          <t>model_40_6_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9415461368559854</v>
+        <v>0.9511608551192233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.797376816392988</v>
+        <v>0.7678445337480432</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6650065986331947</v>
+        <v>0.7823806969133814</v>
       </c>
       <c r="E9" t="n">
-        <v>0.89439286450389</v>
+        <v>0.8480909572543619</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8621082593928445</v>
+        <v>0.8772098624915715</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3908812519993167</v>
+        <v>0.3265875867013376</v>
       </c>
       <c r="H9" t="n">
-        <v>1.354942161774061</v>
+        <v>1.552424671804465</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6988915621923575</v>
+        <v>0.5760117089728696</v>
       </c>
       <c r="J9" t="n">
-        <v>1.325183366574627</v>
+        <v>1.193647138198499</v>
       </c>
       <c r="K9" t="n">
-        <v>1.012037469958247</v>
+        <v>0.8848289427114286</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3540402779154241</v>
+        <v>0.3959346223059697</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6252049679899518</v>
+        <v>0.5714784219035199</v>
       </c>
       <c r="N9" t="n">
-        <v>1.042511900468374</v>
+        <v>1.03551937809511</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6518212378299849</v>
+        <v>0.5958074414473711</v>
       </c>
       <c r="P9" t="n">
-        <v>115.878702936901</v>
+        <v>116.2381142136372</v>
       </c>
       <c r="Q9" t="n">
-        <v>185.3546249543885</v>
+        <v>185.7140362311247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_40_6_0</t>
+          <t>model_40_6_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.940751495331127</v>
+        <v>0.9473598680512897</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7971792278196043</v>
+        <v>0.7630402528987559</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9899244851254169</v>
+        <v>0.755414939605934</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9852648849616423</v>
+        <v>0.8304720183049952</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9859715263344385</v>
+        <v>0.8626513242025877</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3961950235350322</v>
+        <v>0.3520048047265464</v>
       </c>
       <c r="H10" t="n">
-        <v>1.35626343747409</v>
+        <v>1.584550919965328</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02102039115355401</v>
+        <v>0.6473867741904437</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1848997159298431</v>
+        <v>1.332090483472028</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1029600535416986</v>
+        <v>0.9897381504300138</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3513328420082504</v>
+        <v>0.4157265968503427</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6294402461989796</v>
+        <v>0.5932999281363064</v>
       </c>
       <c r="N10" t="n">
-        <v>1.043089821577362</v>
+        <v>1.038283732326335</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6562368206006056</v>
+        <v>0.6185579343772325</v>
       </c>
       <c r="P10" t="n">
-        <v>115.8516974105672</v>
+        <v>116.0882209073717</v>
       </c>
       <c r="Q10" t="n">
-        <v>185.3276194280546</v>
+        <v>185.5641429248592</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.939326807758414</v>
+        <v>0.9436590395284423</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7946908343349937</v>
+        <v>0.7580680158337196</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6248375333957077</v>
+        <v>0.7289031439699005</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8873824839738121</v>
+        <v>0.8144304538096171</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8504062176416552</v>
+        <v>0.8490361211827971</v>
       </c>
       <c r="G11" t="n">
-        <v>0.405721915893847</v>
+        <v>0.3767522620995748</v>
       </c>
       <c r="H11" t="n">
-        <v>1.372903336163679</v>
+        <v>1.617800292114272</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7826956629331188</v>
+        <v>0.7175602583237553</v>
       </c>
       <c r="J11" t="n">
-        <v>1.413151283024362</v>
+        <v>1.458139382247572</v>
       </c>
       <c r="K11" t="n">
-        <v>1.097922996350716</v>
+        <v>1.087849659523941</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3735165896629597</v>
+        <v>0.4325987440972356</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6369630412306879</v>
+        <v>0.6138014842761256</v>
       </c>
       <c r="N11" t="n">
-        <v>1.044125957993881</v>
+        <v>1.040975243979315</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6640798765911462</v>
+        <v>0.6399322842059956</v>
       </c>
       <c r="P11" t="n">
-        <v>115.8041745805569</v>
+        <v>115.9523348744957</v>
       </c>
       <c r="Q11" t="n">
-        <v>185.2800965980443</v>
+        <v>185.4282568919831</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9372460463998076</v>
+        <v>0.9401297656220979</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7922027995147529</v>
+        <v>0.7530736408295816</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5869796660359172</v>
+        <v>0.7031068929614543</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8816424238157712</v>
+        <v>0.8000412967324054</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8401185713142325</v>
+        <v>0.8364532806149645</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4196359766798736</v>
+        <v>0.4003525329621117</v>
       </c>
       <c r="H12" t="n">
-        <v>1.389540836462976</v>
+        <v>1.651197700763925</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8616779472181273</v>
+        <v>0.7858397832450988</v>
       </c>
       <c r="J12" t="n">
-        <v>1.48517891836207</v>
+        <v>1.571204252224153</v>
       </c>
       <c r="K12" t="n">
-        <v>1.173427762010987</v>
+        <v>1.17852193778552</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3896703556140413</v>
+        <v>0.4471032461632914</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6477931588708494</v>
+        <v>0.6327341724311337</v>
       </c>
       <c r="N12" t="n">
-        <v>1.045639238981958</v>
+        <v>1.043541988638474</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6753710547606836</v>
+        <v>0.6596709760918298</v>
       </c>
       <c r="P12" t="n">
-        <v>115.7367353314327</v>
+        <v>115.8308195752285</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.2126573489201</v>
+        <v>185.3067415927159</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9353325178299182</v>
+        <v>0.9368094419616853</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7899440002067537</v>
+        <v>0.7481780542960236</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5514817630506412</v>
+        <v>0.6782854163482375</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8770317684310073</v>
+        <v>0.7872396744978023</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8311316642131376</v>
+        <v>0.8249149492688135</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4324317510377128</v>
+        <v>0.4225555525679758</v>
       </c>
       <c r="H13" t="n">
-        <v>1.404645437836381</v>
+        <v>1.683934510455931</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9357366742578492</v>
+        <v>0.8515391994293258</v>
       </c>
       <c r="J13" t="n">
-        <v>1.543034514919955</v>
+        <v>1.671794838988752</v>
       </c>
       <c r="K13" t="n">
-        <v>1.239385930972341</v>
+        <v>1.2616674552744</v>
       </c>
       <c r="L13" t="n">
-        <v>0.403280339865937</v>
+        <v>0.4596710046764953</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6575954311259414</v>
+        <v>0.6500427313400065</v>
       </c>
       <c r="N13" t="n">
-        <v>1.047030896123696</v>
+        <v>1.045956769482411</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6855906300391758</v>
+        <v>0.6777163961871097</v>
       </c>
       <c r="P13" t="n">
-        <v>115.6766615322619</v>
+        <v>115.7228687109207</v>
       </c>
       <c r="Q13" t="n">
-        <v>185.1525835497494</v>
+        <v>185.1987907284081</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9335928765766542</v>
+        <v>0.9337135919708903</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7879200695810588</v>
+        <v>0.743471856221485</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5183504934614227</v>
+        <v>0.6546602618749766</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8733877064060565</v>
+        <v>0.7758870325694538</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8233075844772875</v>
+        <v>0.8143864807626788</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4440647401086003</v>
+        <v>0.4432575157115003</v>
       </c>
       <c r="H14" t="n">
-        <v>1.418179471249747</v>
+        <v>1.71540487865042</v>
       </c>
       <c r="I14" t="n">
-        <v>1.004857930575585</v>
+        <v>0.9140720970623747</v>
       </c>
       <c r="J14" t="n">
-        <v>1.588761068902749</v>
+        <v>1.76099985472607</v>
       </c>
       <c r="K14" t="n">
-        <v>1.296809688376202</v>
+        <v>1.337535874723105</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4148761002475285</v>
+        <v>0.4706425815844835</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6663818275647981</v>
+        <v>0.6657758749845929</v>
       </c>
       <c r="N14" t="n">
-        <v>1.048296089762433</v>
+        <v>1.048208296748443</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6947510815647825</v>
+        <v>0.6941193323287432</v>
       </c>
       <c r="P14" t="n">
-        <v>115.6235698322478</v>
+        <v>115.6272087565033</v>
       </c>
       <c r="Q14" t="n">
-        <v>185.0994918497352</v>
+        <v>185.1031307739907</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9320200891967659</v>
+        <v>0.9308447211422451</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7861203939562335</v>
+        <v>0.7390153146919995</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4875533712789539</v>
+        <v>0.63239335928771</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8705439359666762</v>
+        <v>0.7658216277596852</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8164994463004384</v>
+        <v>0.8048092637183051</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4545819765599332</v>
+        <v>0.4624416681525863</v>
       </c>
       <c r="H15" t="n">
-        <v>1.430213910439698</v>
+        <v>1.745205792378576</v>
       </c>
       <c r="I15" t="n">
-        <v>1.069109491189362</v>
+        <v>0.9730098678892518</v>
       </c>
       <c r="J15" t="n">
-        <v>1.624445374389494</v>
+        <v>1.840090219781607</v>
       </c>
       <c r="K15" t="n">
-        <v>1.346777082400576</v>
+        <v>1.406549551256445</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4249035800367047</v>
+        <v>0.4802664533124799</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6742269473700477</v>
+        <v>0.6800306376572943</v>
       </c>
       <c r="N15" t="n">
-        <v>1.049439935129625</v>
+        <v>1.050294748260185</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7029301843617785</v>
+        <v>0.7089809497598482</v>
       </c>
       <c r="P15" t="n">
-        <v>115.5767540303204</v>
+        <v>115.5424697057943</v>
       </c>
       <c r="Q15" t="n">
-        <v>185.0526760478078</v>
+        <v>185.0183917232817</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9306012029057679</v>
+        <v>0.9281977642090291</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7845265982730448</v>
+        <v>0.7348431902994091</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4590254992195117</v>
+        <v>0.6115774161582086</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8683486538036029</v>
+        <v>0.7568851370808358</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8105680544451834</v>
+        <v>0.7961139400958807</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4640700757212081</v>
+        <v>0.4801418813531176</v>
       </c>
       <c r="H16" t="n">
-        <v>1.440871629511934</v>
+        <v>1.773104807402695</v>
       </c>
       <c r="I16" t="n">
-        <v>1.128626750300433</v>
+        <v>1.028107126293456</v>
       </c>
       <c r="J16" t="n">
-        <v>1.651992295284341</v>
+        <v>1.910309979787647</v>
       </c>
       <c r="K16" t="n">
-        <v>1.39030971735095</v>
+        <v>1.469208280723504</v>
       </c>
       <c r="L16" t="n">
-        <v>0.433700197816852</v>
+        <v>0.4887437826517079</v>
       </c>
       <c r="M16" t="n">
-        <v>0.681226890045606</v>
+        <v>0.6929227095088727</v>
       </c>
       <c r="N16" t="n">
-        <v>1.050471852432169</v>
+        <v>1.052219807847979</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7102281290889141</v>
+        <v>0.7224218638004162</v>
       </c>
       <c r="P16" t="n">
-        <v>115.5354394257956</v>
+        <v>115.4673472652097</v>
       </c>
       <c r="Q16" t="n">
-        <v>185.0113614432831</v>
+        <v>184.9432692826971</v>
       </c>
     </row>
     <row r="17">
@@ -1347,272 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9293207751148731</v>
+        <v>0.9257641341348518</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7831167309508766</v>
+        <v>0.7309711439587057</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4326790871318252</v>
+        <v>0.5922528785843023</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8666678627800335</v>
+        <v>0.7489365790447204</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8053866371918154</v>
+        <v>0.7882310819761081</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4726323022547493</v>
+        <v>0.4964155768649777</v>
       </c>
       <c r="H17" t="n">
-        <v>1.450299418787115</v>
+        <v>1.798997199112113</v>
       </c>
       <c r="I17" t="n">
-        <v>1.183592863146235</v>
+        <v>1.079256816395283</v>
       </c>
       <c r="J17" t="n">
-        <v>1.67308325941909</v>
+        <v>1.972766917051748</v>
       </c>
       <c r="K17" t="n">
-        <v>1.428338016832904</v>
+        <v>1.526012362526766</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4414917804212819</v>
+        <v>0.4962256126044917</v>
       </c>
       <c r="M17" t="n">
-        <v>0.687482583237386</v>
+        <v>0.7045676524401171</v>
       </c>
       <c r="N17" t="n">
-        <v>1.051403072643729</v>
+        <v>1.053989720629199</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7167501400909383</v>
+        <v>0.7345625560605986</v>
       </c>
       <c r="P17" t="n">
-        <v>115.4988751329408</v>
+        <v>115.400683692961</v>
       </c>
       <c r="Q17" t="n">
-        <v>184.9747971504282</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>model_40_6_16</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9281639836871161</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.781868962493355</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.4084076780710656</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.8653917028611279</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.800846028823083</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.4803677718586956</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.458643252208008</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.234229929207456</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.689096816549283</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.461663187617822</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.4484420833245973</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.6930856886840874</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.052244375500279</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.722591781336533</v>
-      </c>
-      <c r="P18" t="n">
-        <v>115.4664065541654</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>184.9423285716528</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>model_40_6_17</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9271171576891761</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7807630156903083</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.3860966239523854</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.8644300165731634</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.7968528381147336</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.4873679021271105</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.466038723572398</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.280777137013764</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.701164284023774</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.490970661754739</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.454681412265785</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.6981173985277194</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.053005703498781</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.7278377014852837</v>
-      </c>
-      <c r="P19" t="n">
-        <v>115.4374719905178</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>184.9133940080052</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>model_40_6_18</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9261683712737792</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7797806017603568</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.3656242932368737</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.8637117959847773</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.7933291085665407</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.4937124412556295</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.472608130045584</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.32348824456724</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.710176686195175</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.516832590257984</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.4602855333181584</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.7026467400163681</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.053695729982706</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.7325598664181335</v>
-      </c>
-      <c r="P20" t="n">
-        <v>115.4116040680064</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>184.8875260854938</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>model_40_6_19</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9253075590385968</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7789061204023132</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.3468731269689744</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.8631812462209301</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.7902103845650611</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.4994686966359694</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.478455790913438</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.362608513302179</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.716834150379652</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.539722036239723</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.4653295122448327</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.7067309931197084</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.054321775244657</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.7368179946316527</v>
-      </c>
-      <c r="P21" t="n">
-        <v>115.3884207045096</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>184.864342721997</v>
+        <v>184.8766057104484</v>
       </c>
     </row>
   </sheetData>
